--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1909.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1909.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.199573329236849</v>
+        <v>1.843082308769226</v>
       </c>
       <c r="B1">
-        <v>3.175677243121802</v>
+        <v>3.960108757019043</v>
       </c>
       <c r="C1">
-        <v>2.510159078732457</v>
+        <v>2.475994825363159</v>
       </c>
       <c r="D1">
-        <v>2.259514185159885</v>
+        <v>0.895289421081543</v>
       </c>
       <c r="E1">
-        <v>1.777888857181149</v>
+        <v>0.5871200561523438</v>
       </c>
     </row>
   </sheetData>
